--- a/sol2attampt1/sol2attampt1/ContactsDataFiles/contacts.xlsx
+++ b/sol2attampt1/sol2attampt1/ContactsDataFiles/contacts.xlsx
@@ -87,9 +87,6 @@
     <t>NJ</t>
   </si>
   <si>
-    <t>3'K-(</t>
-  </si>
-  <si>
     <t>N9ORM/W1.</t>
   </si>
   <si>
@@ -120,39 +117,24 @@
     <t>U?,D</t>
   </si>
   <si>
-    <t>W&lt;)U(&gt;G'D/</t>
-  </si>
-  <si>
     <t>U?a</t>
   </si>
   <si>
-    <t>C'</t>
-  </si>
-  <si>
     <t>)C*</t>
   </si>
   <si>
-    <t>\'%".C</t>
-  </si>
-  <si>
     <t>W B</t>
   </si>
   <si>
     <t>TNX</t>
   </si>
   <si>
-    <t>B6:P)'R$</t>
-  </si>
-  <si>
     <t xml:space="preserve"> )</t>
   </si>
   <si>
     <t>ZN.#!</t>
   </si>
   <si>
-    <t>.A"P'0#S</t>
-  </si>
-  <si>
     <t>.TBL36S</t>
   </si>
   <si>
@@ -169,6 +151,24 @@
   </si>
   <si>
     <t>)</t>
+  </si>
+  <si>
+    <t>3K-(</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>\%".C</t>
+  </si>
+  <si>
+    <t>B6:P)R$</t>
+  </si>
+  <si>
+    <t>.A"P0#S</t>
+  </si>
+  <si>
+    <t>WsqdsafddW</t>
   </si>
 </sst>
 </file>
@@ -504,9 +504,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="7.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" t="s">
@@ -581,90 +586,90 @@
         <v>22</v>
       </c>
       <c r="H2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" t="s">
         <v>23</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>24</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>25</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>26</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>27</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>28</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>29</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>30</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>32</v>
-      </c>
-      <c r="R2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s">
         <v>34</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" t="s">
         <v>35</v>
       </c>
-      <c r="C3" t="s">
+      <c r="G3" t="s">
         <v>36</v>
       </c>
-      <c r="D3" t="s">
+      <c r="H3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" t="s">
         <v>37</v>
       </c>
-      <c r="E3" t="s">
+      <c r="J3" t="s">
         <v>38</v>
       </c>
-      <c r="F3" t="s">
+      <c r="K3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" t="s">
         <v>39</v>
       </c>
-      <c r="G3" t="s">
+      <c r="M3" t="s">
         <v>40</v>
       </c>
-      <c r="H3" t="s">
+      <c r="O3" t="s">
         <v>41</v>
       </c>
-      <c r="I3" t="s">
+      <c r="P3" t="s">
         <v>42</v>
       </c>
-      <c r="J3" t="s">
+      <c r="Q3" t="s">
         <v>43</v>
       </c>
-      <c r="K3" t="s">
+      <c r="R3" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="L3" t="s">
-        <v>45</v>
-      </c>
-      <c r="M3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O3" t="s">
-        <v>47</v>
-      </c>
-      <c r="P3" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>49</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
